--- a/SOC - BMBL.xlsx
+++ b/SOC - BMBL.xlsx
@@ -1,27 +1,143 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhv\OneDrive\Desktop\Model\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B75E3B-6460-42BB-BD93-28804A171A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Operating costs and expenses</t>
+  </si>
+  <si>
+    <t>Cost of revenue</t>
+  </si>
+  <si>
+    <t>Selling and marketing expense</t>
+  </si>
+  <si>
+    <t>General and administrative expense</t>
+  </si>
+  <si>
+    <t>Product development expense</t>
+  </si>
+  <si>
+    <t>Depreciation and amortization expense</t>
+  </si>
+  <si>
+    <t>Total operating costs and expenses</t>
+  </si>
+  <si>
+    <t>Operating (loss) income</t>
+  </si>
+  <si>
+    <t>Interest (expense) income</t>
+  </si>
+  <si>
+    <t>Other expense, net</t>
+  </si>
+  <si>
+    <t>(Loss) earnings before tax</t>
+  </si>
+  <si>
+    <t>Income tax provision</t>
+  </si>
+  <si>
+    <t>Net (loss) earnings</t>
+  </si>
+  <si>
+    <t>Net earnings (loss) attributable to noncontrolling interests</t>
+  </si>
+  <si>
+    <t>Net (loss) earnings attributable to Buzz Holding L.P owners / Worldwide Vision Limited Shareholders</t>
+  </si>
+  <si>
+    <t>Net loss per unit attributable to Buzz Holdings L.P owners</t>
+  </si>
+  <si>
+    <t>Basic loss per unit</t>
+  </si>
+  <si>
+    <t>Diluted loss per unit</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="singleAccounting"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -37,7 +153,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,14 +161,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +491,370 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="2" max="2" width="92.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D2" s="5">
+        <f t="shared" ref="D2:E2" si="0">+C2+1</f>
+        <v>2019</v>
+      </c>
+      <c r="E2" s="5">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="F2" s="5">
+        <f>+E2+1</f>
+        <v>2021</v>
+      </c>
+      <c r="G2" s="5">
+        <f t="shared" ref="G2:O2" si="1">+F2+1</f>
+        <v>2022</v>
+      </c>
+      <c r="H2" s="5">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+      <c r="I2" s="5">
+        <f t="shared" si="1"/>
+        <v>2024</v>
+      </c>
+      <c r="J2" s="5">
+        <f t="shared" si="1"/>
+        <v>2025</v>
+      </c>
+      <c r="K2" s="5">
+        <f t="shared" si="1"/>
+        <v>2026</v>
+      </c>
+      <c r="L2" s="5">
+        <f t="shared" si="1"/>
+        <v>2027</v>
+      </c>
+      <c r="M2" s="5">
+        <f t="shared" si="1"/>
+        <v>2028</v>
+      </c>
+      <c r="N2" s="5">
+        <f t="shared" si="1"/>
+        <v>2029</v>
+      </c>
+      <c r="O2" s="5">
+        <f t="shared" si="1"/>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>360105</v>
+      </c>
+      <c r="D4" s="6">
+        <v>488940</v>
+      </c>
+      <c r="E4" s="6">
+        <v>542192</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>110259</v>
+      </c>
+      <c r="D6" s="7">
+        <v>139767</v>
+      </c>
+      <c r="E6" s="6">
+        <v>146629</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7">
+        <v>93605</v>
+      </c>
+      <c r="D7" s="7">
+        <v>142902</v>
+      </c>
+      <c r="E7" s="6">
+        <v>152588</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7">
+        <v>128981</v>
+      </c>
+      <c r="D8" s="7">
+        <v>67079</v>
+      </c>
+      <c r="E8" s="6">
+        <v>178615</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7">
+        <v>37517</v>
+      </c>
+      <c r="D9" s="7">
+        <v>39205</v>
+      </c>
+      <c r="E9" s="6">
+        <v>46994</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="8">
+        <v>5957</v>
+      </c>
+      <c r="D10" s="8">
+        <v>6734</v>
+      </c>
+      <c r="E10" s="18">
+        <v>91767</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10">
+        <f>+SUM(C6:C10)</f>
+        <v>376319</v>
+      </c>
+      <c r="D11" s="16">
+        <f>+SUM(D6:D10)</f>
+        <v>395687</v>
+      </c>
+      <c r="E11" s="16">
+        <f>+SUM(E6:E10)</f>
+        <v>616593</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11">
+        <f>+C4-C11</f>
+        <v>-16214</v>
+      </c>
+      <c r="D12" s="17">
+        <f>+D4-D11</f>
+        <v>93253</v>
+      </c>
+      <c r="E12" s="17">
+        <f>+E4-E11</f>
+        <v>-74401</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="14">
+        <v>4</v>
+      </c>
+      <c r="D13" s="14">
+        <v>202</v>
+      </c>
+      <c r="E13" s="6">
+        <v>-22134</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="15">
+        <v>-4428</v>
+      </c>
+      <c r="D14" s="15">
+        <v>-1473</v>
+      </c>
+      <c r="E14" s="15">
+        <v>-5525</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="6">
+        <f>+SUM(C12:C14)</f>
+        <v>-20638</v>
+      </c>
+      <c r="D15" s="6">
+        <f>+SUM(D12:D14)</f>
+        <v>91982</v>
+      </c>
+      <c r="E15" s="6">
+        <f>+SUM(E12:E14)</f>
+        <v>-102060</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="15">
+        <v>-3031</v>
+      </c>
+      <c r="D16" s="15">
+        <v>-6138</v>
+      </c>
+      <c r="E16" s="15">
+        <v>-8126</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="6">
+        <f>+C15+C16</f>
+        <v>-23669</v>
+      </c>
+      <c r="D17" s="6">
+        <f>+D15+D16</f>
+        <v>85844</v>
+      </c>
+      <c r="E17" s="6">
+        <f>+E15+E16</f>
+        <v>-110186</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="15">
+        <v>-2150</v>
+      </c>
+      <c r="D18" s="18">
+        <v>19698</v>
+      </c>
+      <c r="E18" s="15">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="6">
+        <f>+C17-C18</f>
+        <v>-21519</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" ref="D19:E19" si="2">+D17-D18</f>
+        <v>66146</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="2"/>
+        <v>-110994</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>